--- a/Документация/Отчетный документ по ролям.xlsx
+++ b/Документация/Отчетный документ по ролям.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Аксёнов Антон</t>
   </si>
@@ -73,16 +73,13 @@
     <t>Регистрация</t>
   </si>
   <si>
-    <t>Взаимодействие с бэком</t>
+    <t>Метрика</t>
   </si>
   <si>
     <t>Диаграмма последовательностей</t>
   </si>
   <si>
     <t>Отпрака СМС пользователю</t>
-  </si>
-  <si>
-    <t>Метрика</t>
   </si>
   <si>
     <t>Диаграмма состояний</t>
@@ -248,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -299,9 +296,6 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -676,10 +670,12 @@
       <c r="L9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="21" t="s">
         <v>21</v>
       </c>
@@ -690,67 +686,61 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="E11" s="21" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23" t="s">
         <v>27</v>
-      </c>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="I13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="I14" s="24" t="s">
         <v>29</v>
-      </c>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="I14" s="25" t="s">
-        <v>30</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="30">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -772,7 +762,6 @@
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="E10:H10"/>
